--- a/entrada_validacao.xlsx
+++ b/entrada_validacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Desktop\Insper5thSemester\TransCal\APS4-TransCal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gabrielaa3_al_insper_edu_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C65FE-F97B-4128-81B1-A3D7BF5C4C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC511166-D907-45D2-A31D-A60B21D04573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1740" windowWidth="19128" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -516,12 +516,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="4" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.14399999999999999</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.192</v>
       </c>
@@ -566,7 +566,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>0.28799999999999998</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.38400000000000001</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>0.432</v>
       </c>
@@ -590,7 +590,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>0.57599999999999996</v>
       </c>
@@ -607,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="7" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D2" s="3">
         <v>5.2499999999999997E-6</v>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D3" s="3">
         <v>5.2499999999999997E-6</v>
@@ -670,7 +670,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -678,13 +678,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D4" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -692,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D5" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -706,13 +706,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D6" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -720,13 +720,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D7" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -734,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D8" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -748,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D9" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -762,13 +762,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D10" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -776,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D11" s="3">
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>200000000000</v>
+        <v>193140000000</v>
       </c>
       <c r="D12" s="3">
         <v>5.2499999999999997E-6</v>
@@ -810,12 +810,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="5" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -911,112 +911,112 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1032,16 +1032,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="4" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>7</v>
       </c>
@@ -1086,111 +1086,111 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
